--- a/form_reporting_templates/Form-1IN.xlsx
+++ b/form_reporting_templates/Form-1IN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D1C343-CC37-4DB6-852B-85B569A45BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5A830-A5BB-4E9E-B4C9-17CF3F4A56D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -114,15 +114,6 @@
     <t>Legislation reference</t>
   </si>
   <si>
-    <t>IOTC form 1-IN | metadata</t>
-  </si>
-  <si>
-    <t>1-IN</t>
-  </si>
-  <si>
-    <t>IOTC form 1-IN | data</t>
-  </si>
-  <si>
     <t>Original data</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>IOTC Form 1IN | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 1IN | metadata</t>
+  </si>
+  <si>
+    <t>1IN</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1299,14 +1299,14 @@
         <v>11</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -1347,7 +1347,7 @@
       <c r="D8" s="70"/>
       <c r="E8" s="21"/>
       <c r="F8" s="70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="17"/>
@@ -1368,12 +1368,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="17"/>
@@ -1390,7 +1390,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="21"/>
@@ -1461,7 +1461,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
@@ -1541,7 +1541,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iOKfbdcmeWi4hcyxm31mCDxvD5KMZS01k70a3XlcvF5eyAlQQzgWlUBiV5+wUYUDBDzJU1eyOARyv7NYTpybpQ==" saltValue="LPqyiwuFDfwFQO52VxUdaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hTiehR78/ZBrEkyvuUv4PFiB3u6f2SuIHtfSLnlsGnJCv8+0OvFJTfSe1eYBliwDwTp0RyUfNMVFpUxnLT95fg==" saltValue="hb0KIqhW+/gbYIyVcX4ooA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1570,7 +1570,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="79" t="s">
         <v>13</v>
@@ -2077,7 +2077,7 @@
       <c r="F55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UajPcvWuj9LPcQqqPaWfxVmU65iRpFDHdhYbBRVqC1drnTmjAZjKMIjJ+mOCga8vMT7PV6RLRdtc4DkavLdh8w==" saltValue="/nH11upjL9EPQYGes39sVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oGvAQlF6NJzj+CdVzJqlWhBLhdNKZxuhc/HY0CLXw44NobmdKJ/nJaoj0NdsGR9jOOg29TNMpImAOpBymbpNdg==" saltValue="Pp9YQqNwurW5rwc2RyE9xw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>

--- a/form_reporting_templates/Form-1IN.xlsx
+++ b/form_reporting_templates/Form-1IN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5A830-A5BB-4E9E-B4C9-17CF3F4A56D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B982036-596F-4C78-AD1C-2C50A56FC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>1IN</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1296,17 +1296,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
       <c r="C4" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -1322,7 +1322,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -1347,7 +1347,7 @@
       <c r="D8" s="70"/>
       <c r="E8" s="21"/>
       <c r="F8" s="70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="70"/>
       <c r="H8" s="17"/>
@@ -1368,12 +1368,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="17"/>
@@ -1390,7 +1390,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="21"/>
@@ -1401,7 +1401,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="21"/>
@@ -1450,7 +1450,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="21"/>
@@ -1461,7 +1461,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
@@ -1472,7 +1472,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="56" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="21"/>
@@ -1501,7 +1501,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
@@ -1541,7 +1541,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hTiehR78/ZBrEkyvuUv4PFiB3u6f2SuIHtfSLnlsGnJCv8+0OvFJTfSe1eYBliwDwTp0RyUfNMVFpUxnLT95fg==" saltValue="hb0KIqhW+/gbYIyVcX4ooA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aLJDXhChpBJNH6J08ElPR6u32yoVVQlKiH0GJtU07UB9omp7oF3lKMcIcnu9rQj9F18sU4nAD7XyhIwlpXfJ9w==" saltValue="i9M1P1vaK8IPhquxU6RPyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1555,7 +1555,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{3E135360-8976-4AAA-8474-BB32F06C9745}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{F730E8AF-D3A7-4431-9DD3-422CC542A285}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{F730E8AF-D3A7-4431-9DD3-422CC542A285}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -1643,78 +1643,78 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="J4" s="81" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>21</v>
       </c>
       <c r="K4" s="82"/>
       <c r="L4" s="83"/>
       <c r="M4" s="82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="64" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="64" t="s">
         <v>23</v>
-      </c>
-      <c r="O5" s="64" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">

--- a/form_reporting_templates/Form-1IN.xlsx
+++ b/form_reporting_templates/Form-1IN.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B982036-596F-4C78-AD1C-2C50A56FC85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC630D-1727-4498-8E71-5721EA6DD296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Reporting entity</t>
   </si>
   <si>
-    <t>1.0.0-legacy</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Flag state</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +207,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -857,10 +867,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,6 +938,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1274,24 +1284,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="B2" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
@@ -1299,14 +1309,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -1341,15 +1351,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="70"/>
+      <c r="F8" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="69"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,12 +1378,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="17"/>
@@ -1390,7 +1400,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="21"/>
@@ -1472,7 +1482,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="21"/>
@@ -1520,11 +1530,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1541,7 +1551,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aLJDXhChpBJNH6J08ElPR6u32yoVVQlKiH0GJtU07UB9omp7oF3lKMcIcnu9rQj9F18sU4nAD7XyhIwlpXfJ9w==" saltValue="i9M1P1vaK8IPhquxU6RPyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UnNls1aLNkGumSRDsGuj6N82AQY3Djm9epEEzjAJbkoHn3KocszvqQVb6AstwcEQG8K3do7uDtwXBX9m8iqrag==" saltValue="nzKR4EjkEgdsOxZ6M3TTGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1570,7 +1580,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,52 +1617,52 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="B2" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="76"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="80"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="49" t="s">
         <v>16</v>
       </c>
@@ -1662,16 +1672,16 @@
       <c r="I4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="82" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="58" t="s">
@@ -1680,40 +1690,40 @@
       <c r="C5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="83" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="63" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2077,7 +2087,7 @@
       <c r="F55" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oGvAQlF6NJzj+CdVzJqlWhBLhdNKZxuhc/HY0CLXw44NobmdKJ/nJaoj0NdsGR9jOOg29TNMpImAOpBymbpNdg==" saltValue="Pp9YQqNwurW5rwc2RyE9xw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Df2OUiSxaRu36BSW5+FG1qH4flp1NKafA7aNQIbLZFzuDRbtm5QBNUDvW9LmxUUbJ0m5Bw0wj0DPzqloK/S9EA==" saltValue="bXAj5LSi83tUYecmG5EhMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>

--- a/form_reporting_templates/Form-1IN.xlsx
+++ b/form_reporting_templates/Form-1IN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC630D-1727-4498-8E71-5721EA6DD296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C660B7A-7AA3-4A9D-BF3F-1511E6EDD11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -146,8 +146,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -712,10 +712,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -885,6 +881,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -939,8 +939,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -970,9 +970,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1010,7 +1010,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1116,7 +1116,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1258,7 +1258,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,7 +1269,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,254 +1304,254 @@
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="69" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="69"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="69" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="69"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="28" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="17"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="17"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="17"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="17"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="56" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="17"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="17"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="66"/>
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
       <c r="F25" s="67"/>
       <c r="G25" s="68"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UnNls1aLNkGumSRDsGuj6N82AQY3Djm9epEEzjAJbkoHn3KocszvqQVb6AstwcEQG8K3do7uDtwXBX9m8iqrag==" saltValue="nzKR4EjkEgdsOxZ6M3TTGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xk/TZrPOrw4FKKLI/1kSzHChRDtoJ4M6Otcl6M4zLdrLhAtTN5UNUUasWGED7kK9geSWQMNlDwdlCaIPEGfeSw==" saltValue="4h1JJB8Phkp6A1hewTAXlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1586,18 +1586,18 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="37" customWidth="1"/>
-    <col min="7" max="9" width="21.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="36" customWidth="1"/>
+    <col min="7" max="9" width="21.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" style="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1605,7 +1605,7 @@
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
-      <c r="F1" s="50"/>
+      <c r="F1" s="49"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -1635,7 +1635,7 @@
       <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
@@ -1656,20 +1656,20 @@
         <v>14</v>
       </c>
       <c r="C4" s="77"/>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="78" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="79"/>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="80" t="s">
@@ -1684,407 +1684,407 @@
       <c r="O4" s="82"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="N5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="62" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="36"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="36"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="36"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="36"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="36"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="36"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="36"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="36"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="36"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="36"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="36"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="36"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="36"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="36"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="36"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="36"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="36"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="36"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="36"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="35"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="36"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="36"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="36"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="35"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="36"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="36"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="36"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="36"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="36"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="36"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="36"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="36"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="36"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="54"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="36"/>
+      <c r="F55" s="35"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Df2OUiSxaRu36BSW5+FG1qH4flp1NKafA7aNQIbLZFzuDRbtm5QBNUDvW9LmxUUbJ0m5Bw0wj0DPzqloK/S9EA==" saltValue="bXAj5LSi83tUYecmG5EhMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/form_reporting_templates/Form-1IN.xlsx
+++ b/form_reporting_templates/Form-1IN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C660B7A-7AA3-4A9D-BF3F-1511E6EDD11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734E3F71-5768-4D2B-952E-B5C6F3EE0A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -146,8 +146,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -699,7 +699,7 @@
   <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -765,7 +765,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -885,6 +885,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -938,10 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,7 +1269,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,39 +1284,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
+      <c r="B2" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="33"/>
     </row>
@@ -1332,7 +1332,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1351,26 +1351,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
-      <c r="C8" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="69"/>
+      <c r="C8" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="70"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="69"/>
+      <c r="F8" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="70"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="20"/>
       <c r="F9" s="27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="16"/>
@@ -1378,12 +1378,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="16"/>
@@ -1400,9 +1400,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="C12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="83"/>
+        <v>27</v>
+      </c>
+      <c r="D12" s="66"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -1411,9 +1411,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="83"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="66"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -1440,7 +1440,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1460,7 +1460,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="20"/>
@@ -1471,7 +1471,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="20"/>
@@ -1482,7 +1482,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="20"/>
@@ -1511,7 +1511,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -1530,11 +1530,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xk/TZrPOrw4FKKLI/1kSzHChRDtoJ4M6Otcl6M4zLdrLhAtTN5UNUUasWGED7kK9geSWQMNlDwdlCaIPEGfeSw==" saltValue="4h1JJB8Phkp6A1hewTAXlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RnYDXtGBV3cBe6wzxGl3Q40Vt+W52lBe3YHlTfwBo++fCuk2hgs4wdJNc+5O/ECrV9VSv9KbONC76IF2t0XxAw==" saltValue="uKsk34+O0RtuQ3TUmWij+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1617,114 +1617,114 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="B2" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="77"/>
+      <c r="B4" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="78"/>
       <c r="D4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="79"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="80"/>
       <c r="G4" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="J4" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="62" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="62" t="s">
         <v>22</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
